--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서_최종" sheetId="43" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="242">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,10 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/UX(포토게시판)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -639,14 +635,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>검색 태그</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -687,15 +675,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1176,6 +1156,30 @@
   </si>
   <si>
     <t>Modal 구성(Modal 2개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 사진으로만 이루어진 포토게시판 메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판 상세 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 상단 사진, 하단 제목,20자내 짧은설명글 순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과시 페이지 전환 처리 해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1943,51 +1947,123 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1997,6 +2073,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2006,68 +2088,29 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2077,45 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2431,7 +2435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2442,10 +2446,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="55" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2456,43 +2460,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="55" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2503,29 +2507,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="55" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2536,50 +2540,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="55" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2590,35 +2594,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2627,7 +2631,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2636,8 +2640,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="47"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2645,15 +2649,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2661,15 +2665,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="47"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2677,17 +2681,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="55" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2698,36 +2702,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="54" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2738,57 +2742,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2799,50 +2803,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="55" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2853,50 +2857,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
-      <c r="B59" s="42" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2907,66 +2911,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2974,43 +2978,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="56"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="56"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="56"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="56"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
-      <c r="B74" s="42" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="55" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3018,22 +3022,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="43"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
-      <c r="B77" s="42" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3041,52 +3045,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3094,36 +3098,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="43"/>
-      <c r="B85" s="50"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
-      <c r="B86" s="50"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="43"/>
-      <c r="B87" s="50"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="43"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
-      <c r="B89" s="49" t="s">
+      <c r="A89" s="42"/>
+      <c r="B89" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -3131,15 +3135,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="43"/>
-      <c r="B90" s="51"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="42"/>
+      <c r="B91" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3147,14 +3151,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
-      <c r="B92" s="53"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="43"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -3163,8 +3167,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="43"/>
-      <c r="B94" s="54" t="s">
+      <c r="A94" s="42"/>
+      <c r="B94" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3172,36 +3176,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
-      <c r="B95" s="54"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
-      <c r="B97" s="54"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="43"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="43"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="43"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3210,6 +3214,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -3226,14 +3238,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3243,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112:E112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3256,416 +3260,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="67"/>
+        <v>167</v>
+      </c>
+      <c r="D3" s="74"/>
       <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="67"/>
+        <v>168</v>
+      </c>
+      <c r="D11" s="74"/>
       <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
+      <c r="C12" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D20" s="79"/>
       <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="77"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="86" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="77"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D31" s="79"/>
       <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71" t="s">
+      <c r="B35" s="58"/>
+      <c r="C35" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="74"/>
+      <c r="E37" s="77"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="87"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="87"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="62" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="77"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="71" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -3677,18 +3681,18 @@
         <v>120</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="67"/>
+        <v>136</v>
+      </c>
+      <c r="D45" s="74"/>
       <c r="E45" s="77"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3699,7 +3703,7 @@
         <v>122</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D46" s="79"/>
       <c r="E46" s="80"/>
@@ -3707,20 +3711,20 @@
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83"/>
+      <c r="C47" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="83"/>
+      <c r="C48" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
@@ -3733,73 +3737,73 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71" t="s">
+      <c r="B51" s="58"/>
+      <c r="C51" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="73"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="75"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="75"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="67"/>
+        <v>188</v>
+      </c>
+      <c r="D53" s="74"/>
       <c r="E53" s="77"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="83"/>
+      <c r="C54" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="61"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="83"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="83"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
@@ -3809,21 +3813,21 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="71" t="s">
+      <c r="B59" s="58"/>
+      <c r="C59" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="61"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="75"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15" t="s">
         <v>120</v>
@@ -3833,58 +3837,58 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="75"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="67"/>
+        <v>137</v>
+      </c>
+      <c r="D61" s="74"/>
       <c r="E61" s="77"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C62" s="78" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D62" s="79"/>
       <c r="E62" s="80"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="61"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="D63" s="82"/>
-      <c r="E63" s="83"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="61"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="82"/>
-      <c r="E64" s="83"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="82"/>
-      <c r="E65" s="83"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="88"/>
       <c r="B66" s="18" t="s">
         <v>123</v>
       </c>
@@ -3894,21 +3898,21 @@
     </row>
     <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71" t="s">
+      <c r="B68" s="58"/>
+      <c r="C68" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="73"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="61"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="75"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
         <v>120</v>
@@ -3918,565 +3922,716 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="74" t="s">
+      <c r="A70" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="75"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" s="67"/>
+        <v>138</v>
+      </c>
+      <c r="D70" s="74"/>
       <c r="E70" s="77"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="78" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D71" s="79"/>
       <c r="E71" s="80"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="61"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="81" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" s="82"/>
-      <c r="E72" s="83"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="63"/>
+      <c r="E72" s="64"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="61"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="82"/>
-      <c r="E73" s="83"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="64"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="82"/>
-      <c r="E74" s="83"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="63"/>
+      <c r="E74" s="64"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="88"/>
       <c r="B75" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="68"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="75"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71" t="s">
+      <c r="B77" s="58"/>
+      <c r="C77" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="61"/>
     </row>
     <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="74" t="s">
+      <c r="A78" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="75"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="74" t="s">
+      <c r="A79" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="75"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" s="67"/>
+        <v>164</v>
+      </c>
+      <c r="D79" s="74"/>
       <c r="E79" s="77"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C80" s="78" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D80" s="79"/>
       <c r="E80" s="80"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="61"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="83"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="64"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="61"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82" s="82"/>
-      <c r="E82" s="83"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="63"/>
+      <c r="E82" s="64"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="61"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83" s="82"/>
-      <c r="E83" s="83"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="88"/>
       <c r="B84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="68"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="75"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="69" t="s">
+      <c r="A86" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="D86" s="72"/>
-      <c r="E86" s="73"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="60"/>
+      <c r="E86" s="61"/>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="75"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="66"/>
+      <c r="C88" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="74"/>
+      <c r="E88" s="77"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="95"/>
+      <c r="E89" s="96"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="87"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="68"/>
+      <c r="E90" s="69"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="87"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="68"/>
+      <c r="E91" s="69"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="87"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="68"/>
+      <c r="E92" s="69"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="87"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="71"/>
+      <c r="E93" s="72"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="87"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="67" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="75"/>
-      <c r="C88" s="76" t="s">
+      <c r="D94" s="68"/>
+      <c r="E94" s="69"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="87"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="67"/>
-      <c r="E88" s="77"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="92"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="61"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="88"/>
-      <c r="E90" s="89"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="61"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="61"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="89"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="61"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="D93" s="98"/>
-      <c r="E93" s="99"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="61"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="89"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="61"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="D95" s="85"/>
-      <c r="E95" s="86"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="99"/>
     </row>
     <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
+      <c r="A96" s="88"/>
       <c r="B96" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="68"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="75"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="69" t="s">
+      <c r="A99" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="70"/>
-      <c r="C99" s="71" t="s">
+      <c r="B99" s="58"/>
+      <c r="C99" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="72"/>
-      <c r="E99" s="73"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="61"/>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="74" t="s">
+      <c r="A100" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="75"/>
+      <c r="B100" s="66"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="74" t="s">
+      <c r="A101" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="75"/>
+      <c r="B101" s="66"/>
       <c r="C101" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" s="67"/>
+        <v>236</v>
+      </c>
+      <c r="D101" s="74"/>
       <c r="E101" s="77"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="60" t="s">
+      <c r="A102" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B102" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C102" s="78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D102" s="79"/>
       <c r="E102" s="80"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="61"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="81" t="s">
+      <c r="A103" s="87"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="63"/>
+      <c r="E103" s="64"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="87"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="63"/>
+      <c r="E104" s="64"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="87"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="63"/>
+      <c r="E105" s="64"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="87"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" s="63"/>
+      <c r="E106" s="64"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="87"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="63"/>
+      <c r="E107" s="64"/>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="87"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D103" s="82"/>
-      <c r="E103" s="83"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="61"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="81" t="s">
+      <c r="D108" s="63"/>
+      <c r="E108" s="64"/>
+    </row>
+    <row r="109" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="88"/>
+      <c r="B109" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="73"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="75"/>
+    </row>
+    <row r="110" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="58"/>
+      <c r="C111" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
+    </row>
+    <row r="112" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="66"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="66"/>
+      <c r="C113" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" s="74"/>
+      <c r="E113" s="77"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="82"/>
-      <c r="E104" s="83"/>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="61"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="81" t="s">
+      <c r="D114" s="63"/>
+      <c r="E114" s="64"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="87"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D105" s="82"/>
-      <c r="E105" s="83"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="61"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="81" t="s">
+      <c r="D115" s="63"/>
+      <c r="E115" s="64"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="87"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="82"/>
-      <c r="E106" s="83"/>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="61"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="81" t="s">
+      <c r="D116" s="63"/>
+      <c r="E116" s="64"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="87"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D107" s="82"/>
-      <c r="E107" s="83"/>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="61"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="81" t="s">
+      <c r="D117" s="63"/>
+      <c r="E117" s="64"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="87"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="63"/>
+      <c r="E118" s="64"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="87"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="63"/>
+      <c r="E119" s="64"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="87"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="82"/>
-      <c r="E108" s="83"/>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="61"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="81" t="s">
+      <c r="D120" s="63"/>
+      <c r="E120" s="64"/>
+    </row>
+    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="87"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D109" s="82"/>
-      <c r="E109" s="83"/>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="61"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D110" s="82"/>
-      <c r="E110" s="83"/>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="61"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111" s="82"/>
-      <c r="E111" s="83"/>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="61"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="81" t="s">
+      <c r="D121" s="82"/>
+      <c r="E121" s="83"/>
+    </row>
+    <row r="122" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="88"/>
+      <c r="B122" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="73"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="75"/>
+    </row>
+    <row r="124" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="58"/>
+      <c r="C125" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" s="60"/>
+      <c r="E125" s="61"/>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="66"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B127" s="66"/>
+      <c r="C127" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D127" s="74"/>
+      <c r="E127" s="77"/>
+    </row>
+    <row r="128" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="82"/>
-      <c r="E112" s="83"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="61"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="81" t="s">
+      <c r="D128" s="79"/>
+      <c r="E128" s="80"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="87"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="63"/>
+      <c r="E129" s="64"/>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A130" s="87"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="63"/>
+      <c r="E130" s="64"/>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A131" s="87"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D131" s="71"/>
+      <c r="E131" s="72"/>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="87"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D113" s="82"/>
-      <c r="E113" s="83"/>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="61"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="D114" s="82"/>
-      <c r="E114" s="83"/>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="61"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D115" s="82"/>
-      <c r="E115" s="83"/>
-    </row>
-    <row r="116" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="61"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D116" s="58"/>
-      <c r="E116" s="59"/>
-    </row>
-    <row r="117" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
-      <c r="B117" s="18" t="s">
+      <c r="D132" s="82"/>
+      <c r="E132" s="83"/>
+    </row>
+    <row r="133" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="88"/>
+      <c r="B133" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="66"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="68"/>
-    </row>
-    <row r="118" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="70"/>
-      <c r="C119" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="73"/>
-    </row>
-    <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" s="75"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="75"/>
-      <c r="C121" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="77"/>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D122" s="79"/>
-      <c r="E122" s="80"/>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="61"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="83"/>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="61"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="82"/>
-      <c r="E124" s="83"/>
-    </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="61"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="D125" s="98"/>
-      <c r="E125" s="99"/>
-    </row>
-    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="61"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="D126" s="58"/>
-      <c r="E126" s="59"/>
-    </row>
-    <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="62"/>
-      <c r="B127" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C127" s="66"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="68"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C113:E113"/>
+  <mergeCells count="168">
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
     <mergeCell ref="C114:E114"/>
     <mergeCell ref="C115:E115"/>
     <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A18:B18"/>
@@ -4501,119 +4656,25 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C107:E107"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="A102:A117"/>
-    <mergeCell ref="B102:B116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4625,7 +4686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4640,110 +4701,110 @@
     <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D5" s="41"/>
     </row>
     <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="41"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" s="40"/>
     </row>
     <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="31"/>
       <c r="C12" s="36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="31" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="31"/>

--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
@@ -591,10 +591,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기간 별 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,10 +603,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행 중 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/UX(포토게시판)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,10 +627,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>검색 태그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>검색 태그 선택을 통한 페이지 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -738,14 +726,6 @@
     <t>진행 예정 축제정보를 제공</t>
   </si>
   <si>
-    <t>진행 예정 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계절별 여행지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각 지역마다 여행지(유명장소, 관광지)정보를 화면에 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -758,10 +738,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역 여행지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>계절별 여행지 상단에는 봄,여름,가을,겨울이란 단어가 존재한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -778,10 +754,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 여행지,축제 상세 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여행지,축제 썸네일 선택시 선택 여행지,축제 상세정보를 화면에 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -814,22 +786,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>태그 해당여행지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역별 축제는 Select Bar 형식으로 보여진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역축제 Select Bar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역  축제정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역의 축제정보를 화면에 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -875,10 +835,6 @@
   </si>
   <si>
     <t>[&lt;진행예정&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역-여행 Select Bar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1180,6 +1136,50 @@
   </si>
   <si>
     <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 게시판 -계절별-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 게시판-검색 태그-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지게시판-태그 해당여행지-중간상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제게시판-지역-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 게시판-지역-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 게시판-지역-중간상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제게시판-지역-중간상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제게시판-기간 별 축제-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제게시판-진행 중 축제-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제게시판-진행 예정 축제-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공통)여행지,축제 상세 페이지화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1947,6 +1947,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,12 +1989,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,20 +2082,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2031,65 +2100,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2102,24 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2446,10 +2446,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2460,43 +2460,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2507,29 +2507,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2540,50 +2540,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="46"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2594,35 +2594,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2640,8 +2640,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2649,15 +2649,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="46"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="46"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2665,15 +2665,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="46"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2681,17 +2681,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="47"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="42" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2702,36 +2702,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="55" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2742,57 +2742,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="42" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2803,50 +2803,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="55"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2857,50 +2857,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
-      <c r="B53" s="55"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="42"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="42"/>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2911,66 +2911,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="42"/>
-      <c r="B60" s="55"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="42"/>
-      <c r="B61" s="55"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="42"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="42"/>
-      <c r="B65" s="55"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="42"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2978,43 +2978,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="56"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="56"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="56"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="56"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="42"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
-      <c r="B74" s="55" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3022,22 +3022,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
-      <c r="B75" s="55"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="42"/>
-      <c r="B76" s="55"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="55" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3045,52 +3045,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
-      <c r="B78" s="55"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="42"/>
-      <c r="B79" s="55"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="42"/>
-      <c r="B80" s="55"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
-      <c r="B81" s="55"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="42"/>
-      <c r="B82" s="55"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="42"/>
-      <c r="B83" s="55"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3098,36 +3098,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="42"/>
-      <c r="B85" s="49"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="42"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="42"/>
-      <c r="B88" s="50"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="48" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -3135,15 +3135,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="42"/>
-      <c r="B90" s="50"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="42"/>
-      <c r="B91" s="51" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3151,14 +3151,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="42"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="42"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -3167,8 +3167,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="42"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="43"/>
+      <c r="B94" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3176,36 +3176,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="42"/>
-      <c r="B95" s="53"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="42"/>
-      <c r="B96" s="53"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="42"/>
-      <c r="B97" s="53"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="42"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="42"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="42"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3214,14 +3214,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -3238,6 +3230,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125:E125"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3260,416 +3260,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="87"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
+        <v>128</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="87"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="88"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+        <v>128</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="58"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="66" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="77"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="87"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="87"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="87"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
+        <v>128</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="81"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="57" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="77"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
+      <c r="C31" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="77"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="84" t="s">
+      <c r="A38" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="87"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -3681,50 +3681,50 @@
         <v>120</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="77"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="81"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="80"/>
+      <c r="C46" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
+      <c r="C48" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
@@ -3737,73 +3737,73 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="66"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="77"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="84" t="s">
+      <c r="A54" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="64"/>
+      <c r="C54" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="87"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="64"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="64"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="67"/>
+      <c r="E56" s="68"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
@@ -3813,82 +3813,82 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="61"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="85"/>
+      <c r="E59" s="86"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="66"/>
+      <c r="B60" s="79"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="74"/>
-      <c r="E61" s="77"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="76"/>
+      <c r="E61" s="81"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="84" t="s">
+      <c r="A62" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="80"/>
+      <c r="C62" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="87"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="87"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="63"/>
-      <c r="E64" s="64"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="67"/>
+      <c r="E64" s="68"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="87"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="64"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="88"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="18" t="s">
         <v>123</v>
       </c>
@@ -3898,633 +3898,746 @@
     </row>
     <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="60"/>
-      <c r="E68" s="61"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="85"/>
+      <c r="E68" s="86"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="66"/>
+      <c r="B69" s="79"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="74"/>
-      <c r="E70" s="77"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="76"/>
+      <c r="E70" s="81"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="84" t="s">
+      <c r="A71" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="80"/>
+      <c r="C71" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="65"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="87"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="63"/>
-      <c r="E72" s="64"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="68"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="87"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="64"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="68"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="87"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="64"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="67"/>
+      <c r="E74" s="68"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="88"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="77"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="61"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="85"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="66"/>
+      <c r="B78" s="79"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="66"/>
-      <c r="C79" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="74"/>
-      <c r="E79" s="77"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="76"/>
+      <c r="E79" s="81"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="84" t="s">
+      <c r="A80" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="D80" s="79"/>
-      <c r="E80" s="80"/>
+      <c r="C80" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="87"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="64"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="67"/>
+      <c r="E81" s="68"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="87"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="63"/>
-      <c r="E82" s="64"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="67"/>
+      <c r="E82" s="68"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="87"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="67"/>
+      <c r="E83" s="68"/>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="88"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="77"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="61"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="85"/>
+      <c r="E86" s="86"/>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="66"/>
+      <c r="B87" s="79"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="66"/>
-      <c r="C88" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="74"/>
-      <c r="E88" s="77"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="76"/>
+      <c r="E88" s="81"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="84" t="s">
+      <c r="A89" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" s="94"/>
+      <c r="E89" s="95"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="58"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" s="91"/>
+      <c r="E90" s="92"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="58"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" s="91"/>
+      <c r="E91" s="92"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="58"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="91"/>
+      <c r="E92" s="92"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="58"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="70"/>
+      <c r="E93" s="71"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="58"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="91"/>
+      <c r="E94" s="92"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="58"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="96"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="87"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="68"/>
-      <c r="E90" s="69"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="87"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="68"/>
-      <c r="E91" s="69"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="87"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="69"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="87"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="71"/>
-      <c r="E93" s="72"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="87"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="87"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="98"/>
-      <c r="E95" s="99"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="89"/>
     </row>
     <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="88"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="77"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="61"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="85"/>
+      <c r="E99" s="86"/>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="66"/>
+      <c r="B100" s="79"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="77"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="76"/>
+      <c r="E101" s="81"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B102" s="84" t="s">
+      <c r="A102" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="64"/>
+      <c r="E102" s="65"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="58"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="67"/>
+      <c r="E103" s="68"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="58"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" s="67"/>
+      <c r="E104" s="68"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="58"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="67"/>
+      <c r="E105" s="68"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="58"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="67"/>
+      <c r="E106" s="68"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="58"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D102" s="79"/>
-      <c r="E102" s="80"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="87"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="62" t="s">
+      <c r="D107" s="67"/>
+      <c r="E107" s="68"/>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="58"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="64"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="87"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" s="63"/>
-      <c r="E104" s="64"/>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="87"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="64"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="87"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="63"/>
-      <c r="E106" s="64"/>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="87"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="64"/>
-    </row>
-    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="87"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D108" s="63"/>
-      <c r="E108" s="64"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="68"/>
     </row>
     <row r="109" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="88"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="75"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="77"/>
     </row>
     <row r="110" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="61"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="85"/>
+      <c r="E111" s="86"/>
     </row>
     <row r="112" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="65" t="s">
+      <c r="A112" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="66"/>
+      <c r="B112" s="79"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="65" t="s">
+      <c r="A113" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="D113" s="74"/>
-      <c r="E113" s="77"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="76"/>
+      <c r="E113" s="81"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B114" s="84" t="s">
+      <c r="A114" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="62" t="s">
+      <c r="C114" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="67"/>
+      <c r="E114" s="68"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="58"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="67"/>
+      <c r="E115" s="68"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="58"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="67"/>
+      <c r="E116" s="68"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="58"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="63"/>
-      <c r="E114" s="64"/>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="87"/>
-      <c r="B115" s="85"/>
-      <c r="C115" s="62" t="s">
+      <c r="D117" s="67"/>
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="58"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D118" s="67"/>
+      <c r="E118" s="68"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="58"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" s="67"/>
+      <c r="E119" s="68"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="58"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="D115" s="63"/>
-      <c r="E115" s="64"/>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="87"/>
-      <c r="B116" s="85"/>
-      <c r="C116" s="62" t="s">
+      <c r="D120" s="67"/>
+      <c r="E120" s="68"/>
+    </row>
+    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="58"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D116" s="63"/>
-      <c r="E116" s="64"/>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="87"/>
-      <c r="B117" s="85"/>
-      <c r="C117" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D117" s="63"/>
-      <c r="E117" s="64"/>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="87"/>
-      <c r="B118" s="85"/>
-      <c r="C118" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D118" s="63"/>
-      <c r="E118" s="64"/>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="87"/>
-      <c r="B119" s="85"/>
-      <c r="C119" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="D119" s="63"/>
-      <c r="E119" s="64"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="87"/>
-      <c r="B120" s="85"/>
-      <c r="C120" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D120" s="63"/>
-      <c r="E120" s="64"/>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="87"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D121" s="82"/>
-      <c r="E121" s="83"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="74"/>
     </row>
     <row r="122" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="88"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="73"/>
-      <c r="D122" s="74"/>
-      <c r="E122" s="75"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="77"/>
     </row>
     <row r="124" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="125" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="61"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="85"/>
+      <c r="E125" s="86"/>
     </row>
     <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="65" t="s">
+      <c r="A126" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B126" s="66"/>
+      <c r="B126" s="79"/>
       <c r="C126" s="14"/>
       <c r="D126" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="65" t="s">
+      <c r="A127" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B127" s="66"/>
-      <c r="C127" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="D127" s="74"/>
-      <c r="E127" s="77"/>
+      <c r="B127" s="79"/>
+      <c r="C127" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="76"/>
+      <c r="E127" s="81"/>
     </row>
     <row r="128" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="84" t="s">
+      <c r="A128" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="78" t="s">
+      <c r="C128" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" s="64"/>
+      <c r="E128" s="65"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="58"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="67"/>
+      <c r="E129" s="68"/>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A130" s="58"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130" s="67"/>
+      <c r="E130" s="68"/>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A131" s="58"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D131" s="70"/>
+      <c r="E131" s="71"/>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="58"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="D128" s="79"/>
-      <c r="E128" s="80"/>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="87"/>
-      <c r="B129" s="85"/>
-      <c r="C129" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="D129" s="63"/>
-      <c r="E129" s="64"/>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="87"/>
-      <c r="B130" s="85"/>
-      <c r="C130" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D130" s="63"/>
-      <c r="E130" s="64"/>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="87"/>
-      <c r="B131" s="85"/>
-      <c r="C131" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="72"/>
-    </row>
-    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="87"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="D132" s="82"/>
-      <c r="E132" s="83"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="74"/>
     </row>
     <row r="133" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="88"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="75"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C107:E107"/>
     <mergeCell ref="A102:A109"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="C109:E109"/>
@@ -4544,137 +4657,24 @@
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="C111:E111"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C121:E121"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4701,110 +4701,110 @@
     <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="31" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="31" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D5" s="41"/>
     </row>
     <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="31" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="41"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="41" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="31" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D11" s="40"/>
     </row>
     <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="31"/>
       <c r="C12" s="36" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="31" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="31"/>

--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="249">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -663,10 +663,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1127,10 +1123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>각 썸네일은 상단 사진, 하단 제목,20자내 짧은설명글 순으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과시 페이지 전환 처리 해야한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1180,6 +1172,42 @@
   </si>
   <si>
     <t>(공통)여행지,축제 상세 페이지화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(마이페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의여행리스트-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의여행리스트-상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나의 여행리스트는 리스트형식으로 구성된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 한행에는 좌측 썸네일, 우측 나의 여행리스트 폴더명, 우측하단 여행지,축제상세페이명으로 구성되어있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 한행에는 좌측: 썸네일, 중간:나의 여행리스트 폴더명, 중간하단: 여행지,축제상세페이명, 우측:더보기 로 구성되어있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더보기는 카톡공유, 삭제가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 나의여행리스트-상세화면 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 상단 사진, 하단 부제목:작성자, 누적조회수, 제목: 제목순으로 구성된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1947,51 +1975,99 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,26 +2083,62 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2036,90 +2148,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2446,10 +2474,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="55" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2460,43 +2488,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="55" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2507,29 +2535,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="55" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2540,50 +2568,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="55" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2594,35 +2622,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2631,7 +2659,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2640,8 +2668,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="47"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2649,15 +2677,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2665,15 +2693,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="47"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2681,17 +2709,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="55" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2702,36 +2730,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="54" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2742,57 +2770,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2803,50 +2831,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="55" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2857,50 +2885,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
-      <c r="B59" s="42" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2911,66 +2939,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2978,43 +3006,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="56"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="56"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="56"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="56"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
-      <c r="B74" s="42" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="55" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3022,22 +3050,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="43"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
-      <c r="B77" s="42" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3045,52 +3073,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3098,36 +3126,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="43"/>
-      <c r="B85" s="50"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
-      <c r="B86" s="50"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="43"/>
-      <c r="B87" s="50"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="43"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
-      <c r="B89" s="49" t="s">
+      <c r="A89" s="42"/>
+      <c r="B89" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -3135,15 +3163,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="43"/>
-      <c r="B90" s="51"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="42"/>
+      <c r="B91" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3151,14 +3179,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
-      <c r="B92" s="53"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="43"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -3167,8 +3195,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="43"/>
-      <c r="B94" s="54" t="s">
+      <c r="A94" s="42"/>
+      <c r="B94" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3176,36 +3204,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
-      <c r="B95" s="54"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
-      <c r="B97" s="54"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="43"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="43"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="43"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3214,6 +3242,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -3230,14 +3266,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3247,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118:E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3260,15 +3288,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
@@ -3280,7 +3308,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3288,66 +3316,66 @@
         <v>121</v>
       </c>
       <c r="B3" s="79"/>
-      <c r="C3" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="81"/>
+      <c r="C3" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="58"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="66" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78" t="s">
@@ -3359,7 +3387,7 @@
         <v>120</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3367,63 +3395,63 @@
         <v>121</v>
       </c>
       <c r="B11" s="79"/>
-      <c r="C11" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="81"/>
+      <c r="C11" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="66" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
@@ -3435,7 +3463,7 @@
         <v>120</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3443,90 +3471,90 @@
         <v>121</v>
       </c>
       <c r="B19" s="79"/>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="81"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="74"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="66" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="74"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="66" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="74"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="78" t="s">
@@ -3538,7 +3566,7 @@
         <v>120</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3546,54 +3574,54 @@
         <v>121</v>
       </c>
       <c r="B30" s="79"/>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="81"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="74"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78" t="s">
@@ -3605,7 +3633,7 @@
         <v>120</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3613,63 +3641,63 @@
         <v>121</v>
       </c>
       <c r="B37" s="79"/>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="81"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
+      <c r="C38" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="66" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="84" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -3681,7 +3709,7 @@
         <v>120</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3689,11 +3717,11 @@
         <v>121</v>
       </c>
       <c r="B45" s="79"/>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="81"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="64"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
@@ -3702,29 +3730,29 @@
       <c r="B46" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
+      <c r="C46" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
+      <c r="C48" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
@@ -3737,15 +3765,15 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="84" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="86"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78" t="s">
@@ -3757,7 +3785,7 @@
         <v>120</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3765,45 +3793,45 @@
         <v>121</v>
       </c>
       <c r="B53" s="79"/>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="64"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="74"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="74"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="81"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="58"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
@@ -3813,15 +3841,15 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="84" t="s">
+      <c r="B59" s="72"/>
+      <c r="C59" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78" t="s">
@@ -3833,7 +3861,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3841,54 +3869,54 @@
         <v>121</v>
       </c>
       <c r="B61" s="79"/>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="81"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="64"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="69"/>
+      <c r="E62" s="70"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="74"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="74"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="59"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="74"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="58"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="68"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="67"/>
-      <c r="E64" s="68"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="18" t="s">
         <v>123</v>
       </c>
@@ -3898,15 +3926,15 @@
     </row>
     <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="84" t="s">
+      <c r="B68" s="72"/>
+      <c r="C68" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="85"/>
-      <c r="E68" s="86"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78" t="s">
@@ -3918,7 +3946,7 @@
         <v>120</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3926,72 +3954,72 @@
         <v>121</v>
       </c>
       <c r="B70" s="79"/>
-      <c r="C70" s="80" t="s">
+      <c r="C70" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="81"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="64"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="69"/>
+      <c r="E71" s="70"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="74"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="74"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="65"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="58"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="67"/>
-      <c r="E72" s="68"/>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="68"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="67"/>
-      <c r="E74" s="68"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="77"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="62"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="84" t="s">
+      <c r="B77" s="72"/>
+      <c r="C77" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="85"/>
-      <c r="E77" s="86"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="67"/>
     </row>
     <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="78" t="s">
@@ -4003,7 +4031,7 @@
         <v>120</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4011,72 +4039,72 @@
         <v>121</v>
       </c>
       <c r="B79" s="79"/>
-      <c r="C79" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="81"/>
+      <c r="C79" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="61"/>
+      <c r="E79" s="64"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="63" t="s">
+      <c r="C80" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="69"/>
+      <c r="E80" s="70"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="74"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="58"/>
+      <c r="E81" s="59"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="74"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="65"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="58"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="68"/>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="68"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="59"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="58"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="68"/>
+      <c r="A83" s="74"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="58"/>
+      <c r="E83" s="59"/>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
+      <c r="A84" s="75"/>
       <c r="B84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="77"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="62"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="86"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="66"/>
+      <c r="E86" s="67"/>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="78" t="s">
@@ -4088,7 +4116,7 @@
         <v>120</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4096,99 +4124,99 @@
         <v>121</v>
       </c>
       <c r="B88" s="79"/>
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="61"/>
+      <c r="E88" s="64"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="95"/>
+      <c r="E89" s="96"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="74"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="81"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="94"/>
-      <c r="E89" s="95"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="90" t="s">
+      <c r="D90" s="92"/>
+      <c r="E90" s="93"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="74"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="91"/>
-      <c r="E90" s="92"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="90" t="s">
+      <c r="D91" s="92"/>
+      <c r="E91" s="93"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="74"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="91"/>
-      <c r="E91" s="92"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="90" t="s">
+      <c r="D92" s="92"/>
+      <c r="E92" s="93"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="74"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="98"/>
+      <c r="E93" s="99"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="74"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="D92" s="91"/>
-      <c r="E92" s="92"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="71"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="58"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="90" t="s">
+      <c r="D94" s="92"/>
+      <c r="E94" s="93"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="74"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="91"/>
-      <c r="E94" s="92"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="58"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="D95" s="88"/>
-      <c r="E95" s="89"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="90"/>
     </row>
     <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="59"/>
+      <c r="A96" s="75"/>
       <c r="B96" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="75"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="77"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="62"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="84" t="s">
+      <c r="B99" s="72"/>
+      <c r="C99" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="85"/>
-      <c r="E99" s="86"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="67"/>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="78" t="s">
@@ -4200,7 +4228,7 @@
         <v>120</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4208,419 +4236,539 @@
         <v>121</v>
       </c>
       <c r="B101" s="79"/>
-      <c r="C101" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="76"/>
-      <c r="E101" s="81"/>
+      <c r="C101" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="61"/>
+      <c r="E101" s="64"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="57" t="s">
+      <c r="A102" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="60" t="s">
+      <c r="B102" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C102" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="64"/>
-      <c r="E102" s="65"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="70"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="58"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="66" t="s">
+      <c r="A103" s="74"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="68"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="59"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="68"/>
+      <c r="A104" s="74"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="58"/>
+      <c r="E104" s="59"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="66" t="s">
+      <c r="A105" s="74"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="58"/>
+      <c r="E105" s="59"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="74"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="68"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="D106" s="67"/>
-      <c r="E106" s="68"/>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="66" t="s">
+      <c r="D106" s="58"/>
+      <c r="E106" s="59"/>
+    </row>
+    <row r="107" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="74"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="68"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
     </row>
     <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="58"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="68"/>
-    </row>
-    <row r="109" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="59"/>
-      <c r="B109" s="18" t="s">
+      <c r="A108" s="75"/>
+      <c r="B108" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="75"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="77"/>
-    </row>
-    <row r="110" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="82" t="s">
+      <c r="C108" s="60"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="62"/>
+    </row>
+    <row r="109" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="83"/>
-      <c r="C111" s="84" t="s">
+      <c r="B110" s="72"/>
+      <c r="C110" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="85"/>
-      <c r="E111" s="86"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="67"/>
+    </row>
+    <row r="111" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="79"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="79"/>
+      <c r="C112" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112" s="61"/>
+      <c r="E112" s="64"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="74"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="58"/>
+      <c r="E114" s="59"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="74"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="58"/>
+      <c r="E115" s="59"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="74"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="58"/>
+      <c r="E116" s="59"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="74"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="58"/>
+      <c r="E117" s="59"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="74"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D118" s="58"/>
+      <c r="E118" s="59"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="74"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="58"/>
+      <c r="E119" s="59"/>
+    </row>
+    <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="74"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D120" s="85"/>
+      <c r="E120" s="86"/>
+    </row>
+    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="75"/>
+      <c r="B121" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="60"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="62"/>
+    </row>
+    <row r="123" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="72"/>
+      <c r="C124" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="66"/>
+      <c r="E124" s="67"/>
+    </row>
+    <row r="125" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="79"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15" t="s">
+      <c r="B125" s="79"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E125" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="79"/>
-      <c r="C113" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="D113" s="76"/>
-      <c r="E113" s="81"/>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="68"/>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="58"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="67"/>
-      <c r="E115" s="68"/>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="58"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="67"/>
-      <c r="E116" s="68"/>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="58"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D117" s="67"/>
-      <c r="E117" s="68"/>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="58"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D118" s="67"/>
-      <c r="E118" s="68"/>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="58"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="67"/>
-      <c r="E119" s="68"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="58"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120" s="67"/>
-      <c r="E120" s="68"/>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="58"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="73"/>
-      <c r="E121" s="74"/>
-    </row>
-    <row r="122" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="59"/>
-      <c r="B122" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="75"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="77"/>
-    </row>
-    <row r="124" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="85"/>
-      <c r="E125" s="86"/>
     </row>
     <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" s="79"/>
+      <c r="C126" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126" s="61"/>
+      <c r="E126" s="64"/>
+    </row>
+    <row r="127" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D127" s="69"/>
+      <c r="E127" s="70"/>
+    </row>
+    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="74"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="74"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="58"/>
+      <c r="E129" s="59"/>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A130" s="74"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" s="98"/>
+      <c r="E130" s="99"/>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="74"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D131" s="85"/>
+      <c r="E131" s="86"/>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="75"/>
+      <c r="B132" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="60"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="62"/>
+    </row>
+    <row r="133" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="72"/>
+      <c r="C134" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D134" s="66"/>
+      <c r="E134" s="67"/>
+    </row>
+    <row r="135" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B126" s="79"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15" t="s">
+      <c r="B135" s="79"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="78" t="s">
+      <c r="E135" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B127" s="79"/>
-      <c r="C127" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="D127" s="76"/>
-      <c r="E127" s="81"/>
-    </row>
-    <row r="128" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="57" t="s">
+      <c r="B136" s="79"/>
+      <c r="C136" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D136" s="61"/>
+      <c r="E136" s="64"/>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A137" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="60" t="s">
+      <c r="B137" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="D128" s="64"/>
-      <c r="E128" s="65"/>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="58"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="66" t="s">
+      <c r="C137" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" s="69"/>
+      <c r="E137" s="70"/>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="74"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D138" s="58"/>
+      <c r="E138" s="59"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="74"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="58"/>
+      <c r="E139" s="59"/>
+    </row>
+    <row r="140" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="74"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140" s="58"/>
+      <c r="E140" s="59"/>
+    </row>
+    <row r="141" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="75"/>
+      <c r="B141" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="60"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="62"/>
+    </row>
+    <row r="142" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B143" s="72"/>
+      <c r="C143" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D143" s="66"/>
+      <c r="E143" s="67"/>
+    </row>
+    <row r="144" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="79"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B145" s="79"/>
+      <c r="C145" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145" s="61"/>
+      <c r="E145" s="64"/>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A146" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D146" s="69"/>
+      <c r="E146" s="70"/>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="74"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D147" s="58"/>
+      <c r="E147" s="59"/>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="74"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D129" s="67"/>
-      <c r="E129" s="68"/>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="58"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="66" t="s">
+      <c r="D148" s="58"/>
+      <c r="E148" s="59"/>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A149" s="74"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" s="98"/>
+      <c r="E149" s="99"/>
+    </row>
+    <row r="150" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="74"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="D130" s="67"/>
-      <c r="E130" s="68"/>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="58"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-    </row>
-    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="58"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="D132" s="73"/>
-      <c r="E132" s="74"/>
-    </row>
-    <row r="133" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="59"/>
-      <c r="B133" s="18" t="s">
+      <c r="D150" s="85"/>
+      <c r="E150" s="86"/>
+    </row>
+    <row r="151" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="75"/>
+      <c r="B151" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="75"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="77"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
+  <mergeCells count="192">
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="C121:E121"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C107:E107"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C86:E86"/>
@@ -4637,44 +4785,118 @@
     <mergeCell ref="C92:E92"/>
     <mergeCell ref="C93:E93"/>
     <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
     <mergeCell ref="C106:E106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4701,110 +4923,110 @@
     <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="41"/>
     </row>
     <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="41"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="40"/>
     </row>
     <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="31"/>
       <c r="C12" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>215</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="31"/>

--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1191,10 +1191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>리스트 한행에는 좌측 썸네일, 우측 나의 여행리스트 폴더명, 우측하단 여행지,축제상세페이명으로 구성되어있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리스트 한행에는 좌측: 썸네일, 중간:나의 여행리스트 폴더명, 중간하단: 여행지,축제상세페이명, 우측:더보기 로 구성되어있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1208,6 +1204,46 @@
   </si>
   <si>
     <t>각 썸네일은 상단 사진, 하단 부제목:작성자, 누적조회수, 제목: 제목순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나의 여행리스트 상세화면은 화면란에 썸네일 형식으로 보여준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단: "나의 여행리스트" 검색바, 중간: 썸네일 사진들, 하단: 확인버튼, 페이지표시로 구성되어있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">썸네일은 화면단에 최대6개로 구성이 되며 6개 초과시 페이지 전환 처리 해야한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 상단에는 체크박스 리스트, 상단 좌측에는 더보기로 구성된다. 하단에는 여행지,축제 상세페이지 제목이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1확인버튼을 클릭시 체크한 썸네일의 정보들은 나만의 코스로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4. 1개이상 6개이하 체크박스 선택일때 확인버튼 클릭시 나만의 코스로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 체크박스 선택 1개 미만일때 확인버튼 클릭시 Alert창 "1개이상선택해주세요" 이 화면에 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3. 체크박스 선택 6개초과 일때 확인버튼 클릭시  Alert창 "6개이하 선택해주세요" 가 화면에 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트형태로 작성된 나의여행리스트 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일형태로 저장되어있는 나의여행리스트 상세화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1848,7 +1884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,6 +2011,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,11 +2053,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2029,77 +2122,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2110,44 +2140,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2474,10 +2522,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2488,43 +2536,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2535,29 +2583,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2568,50 +2616,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="46"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2622,35 +2670,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2659,7 +2707,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2668,8 +2716,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2677,15 +2725,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="46"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="46"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2693,15 +2741,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="46"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2709,17 +2757,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="47"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="42" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2730,36 +2778,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="55" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2770,57 +2818,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="42" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2831,50 +2879,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="55"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2885,50 +2933,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
-      <c r="B53" s="55"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="42"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="42"/>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2939,66 +2987,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="42"/>
-      <c r="B60" s="55"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="42"/>
-      <c r="B61" s="55"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="42"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="42"/>
-      <c r="B65" s="55"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="42"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3006,43 +3054,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="56"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="56"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="56"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="56"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="42"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
-      <c r="B74" s="55" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3050,22 +3098,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
-      <c r="B75" s="55"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="42"/>
-      <c r="B76" s="55"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="55" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3073,52 +3121,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
-      <c r="B78" s="55"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="42"/>
-      <c r="B79" s="55"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="42"/>
-      <c r="B80" s="55"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
-      <c r="B81" s="55"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="42"/>
-      <c r="B82" s="55"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="42"/>
-      <c r="B83" s="55"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3126,36 +3174,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="42"/>
-      <c r="B85" s="49"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="42"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="42"/>
-      <c r="B88" s="50"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="48" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -3163,15 +3211,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="42"/>
-      <c r="B90" s="50"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="42"/>
-      <c r="B91" s="51" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3179,14 +3227,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="42"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="42"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -3195,8 +3243,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="42"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="43"/>
+      <c r="B94" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3204,36 +3252,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="42"/>
-      <c r="B95" s="53"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="42"/>
-      <c r="B96" s="53"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="42"/>
-      <c r="B97" s="53"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="42"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="42"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="42"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3242,14 +3290,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -3266,6 +3306,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3275,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:E118"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3288,21 +3336,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
@@ -3312,76 +3360,76 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="57" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>120</v>
@@ -3391,73 +3439,73 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="57" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>120</v>
@@ -3467,100 +3515,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="57" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="57" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="57" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="57" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="74"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="57" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="65" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
         <v>120</v>
@@ -3570,64 +3618,64 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="63" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="84" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="86"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="65" t="s">
+      <c r="B35" s="58"/>
+      <c r="C35" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
         <v>120</v>
@@ -3637,67 +3685,67 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="63" t="s">
+      <c r="B37" s="63"/>
+      <c r="C37" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="74"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="78"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="74"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="57" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="86"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="65" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -3713,15 +3761,15 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="63" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
@@ -3730,29 +3778,29 @@
       <c r="B46" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="75"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="78"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="78"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
@@ -3765,21 +3813,21 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="65" t="s">
+      <c r="B51" s="58"/>
+      <c r="C51" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="79"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15" t="s">
         <v>120</v>
@@ -3789,49 +3837,49 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="63" t="s">
+      <c r="B53" s="63"/>
+      <c r="C53" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="66"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="59"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="78"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="74"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="57" t="s">
+      <c r="A55" s="68"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="59"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="78"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="74"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="57" t="s">
+      <c r="A56" s="68"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="78"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
@@ -3841,21 +3889,21 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="65" t="s">
+      <c r="B59" s="58"/>
+      <c r="C59" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="67"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="61"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="79"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15" t="s">
         <v>120</v>
@@ -3865,58 +3913,58 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="63" t="s">
+      <c r="B61" s="63"/>
+      <c r="C61" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="66"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="74"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="57" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="59"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="78"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="59"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="78"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="57" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="59"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="78"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="18" t="s">
         <v>123</v>
       </c>
@@ -3926,21 +3974,21 @@
     </row>
     <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="65" t="s">
+      <c r="B68" s="58"/>
+      <c r="C68" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="66"/>
-      <c r="E68" s="67"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="61"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="79"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
         <v>120</v>
@@ -3950,82 +3998,82 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="63" t="s">
+      <c r="B70" s="63"/>
+      <c r="C70" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="66"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="68" t="s">
+      <c r="C71" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="70"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="75"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="57" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="78"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="74"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="57" t="s">
+      <c r="A73" s="68"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="59"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="78"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="74"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="57" t="s">
+      <c r="A74" s="68"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="59"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="78"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="75"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="62"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="86"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="65" t="s">
+      <c r="B77" s="58"/>
+      <c r="C77" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="66"/>
-      <c r="E77" s="67"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="61"/>
     </row>
     <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="79"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15" t="s">
         <v>120</v>
@@ -4035,82 +4083,82 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="63" t="s">
+      <c r="B79" s="63"/>
+      <c r="C79" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="66"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D80" s="69"/>
-      <c r="E80" s="70"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="75"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="74"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="57" t="s">
+      <c r="A81" s="68"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="59"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="78"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="57" t="s">
+      <c r="A82" s="68"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="59"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="78"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="74"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="57" t="s">
+      <c r="A83" s="68"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="78"/>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="75"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="62"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="86"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="65" t="s">
+      <c r="B86" s="58"/>
+      <c r="C86" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="67"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="61"/>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="79"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15" t="s">
         <v>120</v>
@@ -4120,109 +4168,109 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="79"/>
-      <c r="C88" s="63" t="s">
+      <c r="B88" s="63"/>
+      <c r="C88" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="64"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="66"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="96"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="95"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="74"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="91" t="s">
+      <c r="A90" s="68"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="93"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="92"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="74"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="91" t="s">
+      <c r="A91" s="68"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="93"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="92"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="74"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="91" t="s">
+      <c r="A92" s="68"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="92"/>
-      <c r="E92" s="93"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="92"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="74"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="97" t="s">
+      <c r="A93" s="68"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="98"/>
-      <c r="E93" s="99"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="81"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="74"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="91" t="s">
+      <c r="A94" s="68"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="D94" s="92"/>
-      <c r="E94" s="93"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="92"/>
     </row>
     <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="74"/>
-      <c r="B95" s="80"/>
-      <c r="C95" s="88" t="s">
+      <c r="A95" s="68"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="89"/>
-      <c r="E95" s="90"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="89"/>
     </row>
     <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="75"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="60"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="62"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="86"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="65" t="s">
+      <c r="B99" s="58"/>
+      <c r="C99" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="66"/>
-      <c r="E99" s="67"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="61"/>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="78" t="s">
+      <c r="A100" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="79"/>
+      <c r="B100" s="63"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>120</v>
@@ -4232,100 +4280,100 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="78" t="s">
+      <c r="A101" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="79"/>
-      <c r="C101" s="63" t="s">
+      <c r="B101" s="63"/>
+      <c r="C101" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="64"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="66"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B102" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="68" t="s">
+      <c r="C102" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="69"/>
-      <c r="E102" s="70"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="75"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="74"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="57" t="s">
+      <c r="A103" s="68"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="D103" s="58"/>
-      <c r="E103" s="59"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="78"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="74"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="59"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" s="77"/>
+      <c r="E104" s="78"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="74"/>
-      <c r="B105" s="77"/>
-      <c r="C105" s="57" t="s">
+      <c r="A105" s="68"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="59"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="78"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="74"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="57" t="s">
+      <c r="A106" s="68"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="58"/>
-      <c r="E106" s="59"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="78"/>
     </row>
     <row r="107" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="74"/>
-      <c r="B107" s="77"/>
-      <c r="C107" s="57" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="78"/>
     </row>
     <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="75"/>
+      <c r="A108" s="69"/>
       <c r="B108" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="60"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="62"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="86"/>
     </row>
     <row r="109" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="110" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="71" t="s">
+      <c r="A110" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="72"/>
-      <c r="C110" s="65" t="s">
+      <c r="B110" s="58"/>
+      <c r="C110" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="66"/>
-      <c r="E110" s="67"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="61"/>
     </row>
     <row r="111" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="78" t="s">
+      <c r="A111" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="79"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15" t="s">
         <v>120</v>
@@ -4335,118 +4383,118 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="78" t="s">
+      <c r="A112" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="79"/>
-      <c r="C112" s="63" t="s">
+      <c r="B112" s="63"/>
+      <c r="C112" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="D112" s="61"/>
-      <c r="E112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="66"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="73" t="s">
+      <c r="A113" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B113" s="76" t="s">
+      <c r="B113" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="C113" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="78"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="74"/>
-      <c r="B114" s="77"/>
-      <c r="C114" s="57" t="s">
+      <c r="A114" s="68"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="59"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="78"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="74"/>
-      <c r="B115" s="77"/>
-      <c r="C115" s="57" t="s">
+      <c r="A115" s="68"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D115" s="58"/>
-      <c r="E115" s="59"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="78"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="74"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="57" t="s">
+      <c r="A116" s="68"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="D116" s="58"/>
-      <c r="E116" s="59"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="78"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="74"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="57" t="s">
+      <c r="A117" s="68"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="59"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="78"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="74"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="57" t="s">
+      <c r="A118" s="68"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="D118" s="58"/>
-      <c r="E118" s="59"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="78"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="74"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="57" t="s">
+      <c r="A119" s="68"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="D119" s="58"/>
-      <c r="E119" s="59"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="78"/>
     </row>
     <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="74"/>
-      <c r="B120" s="80"/>
-      <c r="C120" s="84" t="s">
+      <c r="A120" s="68"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D120" s="85"/>
-      <c r="E120" s="86"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="84"/>
     </row>
     <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="75"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="60"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="62"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="86"/>
     </row>
     <row r="123" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="124" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="71" t="s">
+      <c r="A124" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="65" t="s">
+      <c r="B124" s="58"/>
+      <c r="C124" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="66"/>
-      <c r="E124" s="67"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="61"/>
     </row>
     <row r="125" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="78" t="s">
+      <c r="A125" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="79"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="14"/>
       <c r="D125" s="15" t="s">
         <v>120</v>
@@ -4456,91 +4504,91 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="78" t="s">
+      <c r="A126" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="79"/>
-      <c r="C126" s="63" t="s">
+      <c r="B126" s="63"/>
+      <c r="C126" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="D126" s="61"/>
-      <c r="E126" s="64"/>
-    </row>
-    <row r="127" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="73" t="s">
+      <c r="D126" s="65"/>
+      <c r="E126" s="66"/>
+    </row>
+    <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="76" t="s">
+      <c r="B127" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="68" t="s">
+      <c r="C127" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="D127" s="69"/>
-      <c r="E127" s="70"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="75"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="74"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="57" t="s">
+      <c r="A128" s="68"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="D128" s="58"/>
-      <c r="E128" s="59"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="78"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="74"/>
-      <c r="B129" s="77"/>
-      <c r="C129" s="57" t="s">
+      <c r="A129" s="68"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="78"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="74"/>
-      <c r="B130" s="77"/>
-      <c r="C130" s="97" t="s">
+      <c r="A130" s="68"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="98"/>
-      <c r="E130" s="99"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="81"/>
     </row>
     <row r="131" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="74"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="84" t="s">
+      <c r="A131" s="68"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D131" s="85"/>
-      <c r="E131" s="86"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="84"/>
     </row>
     <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="75"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="60"/>
-      <c r="D132" s="61"/>
-      <c r="E132" s="62"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="86"/>
     </row>
     <row r="133" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="71" t="s">
+      <c r="A134" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="72"/>
-      <c r="C134" s="65" t="s">
+      <c r="B134" s="58"/>
+      <c r="C134" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="D134" s="66"/>
-      <c r="E134" s="67"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="61"/>
     </row>
     <row r="135" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="78" t="s">
+      <c r="A135" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B135" s="79"/>
+      <c r="B135" s="63"/>
       <c r="C135" s="14"/>
       <c r="D135" s="15" t="s">
         <v>120</v>
@@ -4550,82 +4598,82 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="78" t="s">
+      <c r="A136" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B136" s="79"/>
-      <c r="C136" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D136" s="61"/>
-      <c r="E136" s="64"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136" s="101"/>
+      <c r="E136" s="101"/>
     </row>
     <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A137" s="73" t="s">
+      <c r="A137" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="76" t="s">
+      <c r="B137" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C137" s="68" t="s">
+      <c r="C137" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="69"/>
-      <c r="E137" s="70"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="75"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="74"/>
-      <c r="B138" s="77"/>
-      <c r="C138" s="57" t="s">
+      <c r="A138" s="68"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D138" s="77"/>
+      <c r="E138" s="78"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="68"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="D138" s="58"/>
-      <c r="E138" s="59"/>
-    </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="74"/>
-      <c r="B139" s="77"/>
-      <c r="C139" s="57" t="s">
+      <c r="D139" s="77"/>
+      <c r="E139" s="78"/>
+    </row>
+    <row r="140" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="68"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="D139" s="58"/>
-      <c r="E139" s="59"/>
-    </row>
-    <row r="140" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="74"/>
-      <c r="B140" s="77"/>
-      <c r="C140" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="D140" s="58"/>
-      <c r="E140" s="59"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="78"/>
     </row>
     <row r="141" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="75"/>
+      <c r="A141" s="69"/>
       <c r="B141" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C141" s="60"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="62"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="86"/>
     </row>
     <row r="142" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="71" t="s">
+      <c r="A143" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B143" s="72"/>
-      <c r="C143" s="65" t="s">
+      <c r="B143" s="58"/>
+      <c r="C143" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="D143" s="66"/>
-      <c r="E143" s="67"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="61"/>
     </row>
     <row r="144" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="78" t="s">
+      <c r="A144" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B144" s="79"/>
+      <c r="B144" s="63"/>
       <c r="C144" s="14"/>
       <c r="D144" s="15" t="s">
         <v>120</v>
@@ -4635,103 +4683,241 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="78" t="s">
+      <c r="A145" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B145" s="79"/>
-      <c r="C145" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D145" s="61"/>
-      <c r="E145" s="64"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D145" s="103"/>
+      <c r="E145" s="103"/>
     </row>
     <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="73" t="s">
+      <c r="A146" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B146" s="76" t="s">
+      <c r="B146" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C146" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="D146" s="69"/>
-      <c r="E146" s="70"/>
+      <c r="C146" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" s="74"/>
+      <c r="E146" s="75"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="74"/>
-      <c r="B147" s="77"/>
-      <c r="C147" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="D147" s="58"/>
-      <c r="E147" s="59"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D147" s="77"/>
+      <c r="E147" s="78"/>
     </row>
     <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="74"/>
-      <c r="B148" s="77"/>
-      <c r="C148" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D148" s="58"/>
-      <c r="E148" s="59"/>
+      <c r="A148" s="68"/>
+      <c r="B148" s="71"/>
+      <c r="C148" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D148" s="77"/>
+      <c r="E148" s="78"/>
     </row>
     <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A149" s="74"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="D149" s="98"/>
-      <c r="E149" s="99"/>
-    </row>
-    <row r="150" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="74"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="D150" s="85"/>
-      <c r="E150" s="86"/>
-    </row>
-    <row r="151" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="75"/>
-      <c r="B151" s="18" t="s">
+      <c r="A149" s="68"/>
+      <c r="B149" s="71"/>
+      <c r="C149" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D149" s="77"/>
+      <c r="E149" s="78"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A150" s="68"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D150" s="77"/>
+      <c r="E150" s="78"/>
+    </row>
+    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A151" s="68"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="D151" s="77"/>
+      <c r="E151" s="78"/>
+    </row>
+    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A152" s="68"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="D152" s="77"/>
+      <c r="E152" s="78"/>
+    </row>
+    <row r="153" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="68"/>
+      <c r="B153" s="71"/>
+      <c r="C153" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D153" s="77"/>
+      <c r="E153" s="78"/>
+    </row>
+    <row r="154" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="69"/>
+      <c r="B154" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C151" s="60"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="62"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
+  <mergeCells count="195">
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="B102:B107"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C104:E104"/>
@@ -4756,147 +4942,39 @@
     <mergeCell ref="C117:E117"/>
     <mergeCell ref="A126:B126"/>
     <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="A146:A154"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C149:E149"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열&Modal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Bit2Final\doc\요구사항정의서 및 명세서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="259">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -639,14 +644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역별 여행지는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -707,10 +704,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수정시 게시글 작성 페이지로 전환된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -719,9 +712,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행 예정 축제정보를 제공</t>
-  </si>
-  <si>
     <t>각 지역마다 여행지(유명장소, 관광지)정보를 화면에 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -730,50 +720,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Select Bar에 지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계절별 여행지 상단에는 봄,여름,가을,겨울이란 단어가 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각 단어 클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">여행지들은 회전목마 형식으로 제공되며 회전목마에 3개의 사진이 제공된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지,축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여행지,축제 썸네일 선택시 선택 여행지,축제 상세정보를 화면에 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여행,축제 상세페이지는 여행지,축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지,축제 상세페이지는 상단에 해당 페이지 내용을 공유하기(카톡,페이스북,트위터)버튼을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지,축제 상세 페이지는 상단에 해당 페이지 내용을 보관할 수 있는 내 여행리스트에 담기 버튼을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지,축제 상세페이지는 상단에 여행지,축제 지역의 날씨를 날씨 API로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지,축제 상세페이지는 하단에 여행지,축제 지역의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/ UX (상세 페이지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -782,10 +736,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역별 축제는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역의 축제정보를 화면에 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -804,38 +754,6 @@
   <si>
     <t>축제 사진 클릭시 여행지,축제 상세 페이지로 전환된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형태의 사진을 클릭시 여행지,축제 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Bar에 지역(이름)클릭시 지역 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;*월&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중인 축제는 회전목마 형태로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;진행중&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행예정인 축제는 회전목마 형태로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;진행예정&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행리스트 담기 버튼을 클릭하면 여행리스트 담기 Modal이 나타난다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>삭제 버튼 클릭시 [삭제여부를 묻는 알림창]이 나타난다.</t>
@@ -878,35 +796,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상단에는 [&lt;*월&gt;버튼]방식 좌측에는 내 여행리스트 담기 버튼, 하단에는 축제사진(1장)으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역 축제 페이지는 축제들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상단에는 [&lt;진행중&gt;버튼]방식 좌측에는 내 여행리스트 담기 버튼, 하단에는 축제사진(1장)으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단에는 [&lt;진행예정&gt;버튼]방식 좌측에는 내 여행리스트 담기 버튼, 하단에는 축제사진(1장)으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 좌측에는 내 여행리스트 담기 버튼이 제공된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;계절&gt;버튼] 클릭시 사진을 한장씩 밀며 화면에 제공된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1163,14 +1057,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>축제게시판-진행 중 축제-메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제게시판-진행 예정 축제-메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(공통)여행지,축제 상세 페이지화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1231,26 +1117,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1-3. 체크박스 선택 6개초과 일때 확인버튼 클릭시  Alert창 "6개이하 선택해주세요" 가 화면에 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트형태로 작성된 나의여행리스트 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일형태로 저장되어있는 나의여행리스트 상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 여행지에는 썸네일 형식의 서울,경기,인천 사진이 흐릿하게 보이며 사진 중앙에 서울,경기,인천 명이 써있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 여행지는 사각형 박스안에 존재하며 화면에 출력된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 사진을 클릭시 박스아래에 동일한 크기와 유사한 색상의 박스가 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그를 클릭시 선택한 태그의 여행지 중간상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스안에는 서울=구, 경기 =도 ,인천= 구를 나타내역 태그가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단은 좌측 여행지 총 건 수 우측5개,10개로 페이징 처리 할 수 있는 드롭박스로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개),제목짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절별 여행지 상단에는 봄,여름,가을,겨울이란 단어가 태그형태로 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진들을 클릭시 여행지,축제 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;*월&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;*월&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제사진 선택버튼을 클릭시 지정월별 축제사진(정보)이 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 사진 클릭시 여행지,축제 상세 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제게시판-진행 중,진행예정 축제-메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상단: 진행중 ,진행예정 , 중간: 최신축제사진, 하단: 회전목마 형태의 축제사진으로 구성된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에 진행중, 진행예정은 각 클릭시 해당 관련 사진들로 변경이 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중, 진행예정은 서버날짜 기준으로 적용된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간에 사진들은 최신축제 사진들 대형1장,소형4장 총5장이 화면단에 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단에는 회전목마 형태의 축제사진들이 4장씩 랜덤으로 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중간: 여행지사진들과 하단: 회전목마 형식으로 제공되며 회전목마에 4개의 사진이 제공된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간에 사진들은 랜덤형태로  여행지사진들 대형1장,소형4장 총5장이 화면단에 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마의 [&lt;&gt;버튼] 클릭시 사진을 한장씩 밀며 화면에 제공된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 우측에는 현재 날씨 정보가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마 사진은 &lt;&gt;버튼을 클릭하면 한장씩 밀며 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 제목, 날씨, 더보기 회전목마대표사진, 회전목마사진, 내용, 지도 , 회전목마 주변관광지 사진 순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더보기를 클릭시 카카오톡 공유, 내여행리스트에 담기, 삭제가 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마 대표사진이 화면단에 나타나며 대표사진은 아래 회전목마 사진들 클릭시 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지, 축제내용에 화면에 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 여행지,축제 지역의 위치를 API지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 주변관광지를 회전목마 형태로 4장씩 화면에 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1-2. 체크박스 선택 1개 미만일때 확인버튼 클릭시 Alert창 "1개이상선택해주세요" 이 화면에 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3. 체크박스 선택 6개초과 일때 확인버튼 클릭시  Alert창 "6개이하 선택해주세요" 가 화면에 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트형태로 작성된 나의여행리스트 메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일형태로 저장되어있는 나의여행리스트 상세화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1884,7 +1894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1960,9 +1970,159 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,155 +2132,44 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2131,60 +2180,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,6 +2190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2265,7 +2263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2300,7 +2298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2525,7 +2523,7 @@
       <c r="A2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="56" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2537,42 +2535,42 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="47"/>
-      <c r="B3" s="42"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="47"/>
-      <c r="B4" s="42"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="47"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="47"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="56" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2584,28 +2582,28 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="47"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="47"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="47"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="47"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="56" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2617,49 +2615,49 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="47"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="47"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="47"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="47"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="47"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="47"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="47"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="56" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2671,28 +2669,28 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="47"/>
-      <c r="B20" s="42"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="47"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="47"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="47"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
@@ -2717,7 +2715,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="47"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2726,7 +2724,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="47"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
@@ -2767,7 +2765,7 @@
       <c r="A32" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="56" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2779,28 +2777,28 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
@@ -2868,7 +2866,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="43"/>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2880,49 +2878,49 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="43"/>
-      <c r="B46" s="42"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="43"/>
-      <c r="B47" s="42"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="43"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="43"/>
-      <c r="B49" s="42"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="43"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="43"/>
-      <c r="B51" s="42"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="43"/>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2934,49 +2932,49 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="43"/>
-      <c r="B53" s="42"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="43"/>
-      <c r="B54" s="42"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="43"/>
-      <c r="B55" s="42"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="43"/>
-      <c r="B56" s="42"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="43"/>
-      <c r="B57" s="42"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="43"/>
-      <c r="B58" s="42"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="43"/>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="56" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2988,56 +2986,56 @@
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="43"/>
-      <c r="B60" s="42"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="43"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="43"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="43"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="43"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="43"/>
-      <c r="B65" s="42"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="43"/>
-      <c r="B66" s="42"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="43"/>
-      <c r="B67" s="42"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
@@ -3055,28 +3053,28 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="43"/>
-      <c r="B69" s="56"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="43"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="43"/>
-      <c r="B71" s="56"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="43"/>
-      <c r="B72" s="56"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
@@ -3090,7 +3088,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="43"/>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3099,21 +3097,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="43"/>
-      <c r="B75" s="42"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="43"/>
-      <c r="B76" s="42"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="43"/>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="56" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3122,42 +3120,42 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="43"/>
-      <c r="B78" s="42"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="43"/>
-      <c r="B79" s="42"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="43"/>
-      <c r="B80" s="42"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="43"/>
-      <c r="B81" s="42"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="43"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="43"/>
-      <c r="B83" s="42"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
@@ -3290,6 +3288,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -3306,14 +3312,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3323,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142:E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3336,1645 +3334,1669 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="75"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
+      <c r="B9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="65"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="70" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="75"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="76"/>
+      <c r="B18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="75"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="75"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="75"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="84"/>
+      <c r="B29" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="80"/>
+      <c r="C33" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="75"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="76"/>
+      <c r="B36" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="65"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="71"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="75"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="76"/>
+      <c r="B45" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="73"/>
+      <c r="C47" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="C49" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="65"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="87"/>
+      <c r="E53" s="88"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="73"/>
+      <c r="C56" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="67"/>
+      <c r="E56" s="68"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="80"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="80"/>
+      <c r="C58" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="62"/>
+      <c r="E58" s="65"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="70"/>
+      <c r="E59" s="71"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="75"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="75"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="76"/>
+      <c r="B63" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="73"/>
+      <c r="C65" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="80"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="80"/>
+      <c r="C67" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="62"/>
+      <c r="E67" s="65"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="75"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="59"/>
+      <c r="E69" s="60"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="75"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="75"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="59"/>
+      <c r="E71" s="60"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="75"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="59"/>
+      <c r="E72" s="60"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="76"/>
+      <c r="B73" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="73"/>
+      <c r="C75" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="68"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="80"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="80"/>
+      <c r="C77" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="62"/>
+      <c r="E77" s="65"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="70"/>
+      <c r="E78" s="71"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="75"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" s="59"/>
+      <c r="E79" s="60"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="75"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="59"/>
+      <c r="E80" s="60"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="75"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="60"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="75"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="59"/>
+      <c r="E82" s="60"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="75"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="59"/>
+      <c r="E83" s="60"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="75"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="59"/>
+      <c r="E84" s="60"/>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="76"/>
+      <c r="B85" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="63"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="73"/>
+      <c r="C88" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67" t="s">
+      <c r="D88" s="67"/>
+      <c r="E88" s="68"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="80"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="80"/>
+      <c r="C90" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="62"/>
+      <c r="E90" s="65"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B91" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="G5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="86"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="C91" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="70"/>
+      <c r="E91" s="71"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="75"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="59"/>
+      <c r="E92" s="60"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="75"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="59"/>
+      <c r="E93" s="60"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="75"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="59"/>
+      <c r="E94" s="60"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="75"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="59"/>
+      <c r="E95" s="60"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="75"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="75"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="90"/>
+      <c r="E97" s="91"/>
+    </row>
+    <row r="98" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="75"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="90"/>
+      <c r="E98" s="91"/>
+    </row>
+    <row r="99" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="76"/>
+      <c r="B99" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="63"/>
+    </row>
+    <row r="101" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="B102" s="73"/>
+      <c r="C102" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="67"/>
+      <c r="E102" s="68"/>
+    </row>
+    <row r="103" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B103" s="80"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="E103" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67" t="s">
+      <c r="B104" s="80"/>
+      <c r="C104" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="62"/>
+      <c r="E104" s="65"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B105" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="76" t="s">
+      <c r="C105" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="86"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="75"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" s="59"/>
+      <c r="E106" s="60"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="75"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="59"/>
+      <c r="E107" s="60"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="75"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="59"/>
+      <c r="E108" s="60"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="75"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="59"/>
+      <c r="E109" s="60"/>
+    </row>
+    <row r="110" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="75"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="59"/>
+      <c r="E110" s="60"/>
+    </row>
+    <row r="111" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="76"/>
+      <c r="B111" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="61"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="63"/>
+    </row>
+    <row r="112" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="B113" s="73"/>
+      <c r="C113" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="67"/>
+      <c r="E113" s="68"/>
+    </row>
+    <row r="114" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
+      <c r="B114" s="80"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="E114" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="B115" s="80"/>
+      <c r="C115" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" s="62"/>
+      <c r="E115" s="65"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B116" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
-      <c r="B26" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="C116" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="59"/>
+      <c r="E116" s="60"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="75"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D117" s="59"/>
+      <c r="E117" s="60"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="75"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" s="59"/>
+      <c r="E118" s="60"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="75"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="59"/>
+      <c r="E119" s="60"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="75"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="59"/>
+      <c r="E120" s="60"/>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="75"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="59"/>
+      <c r="E121" s="60"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="75"/>
+      <c r="B122" s="78"/>
+      <c r="C122" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="59"/>
+      <c r="E122" s="60"/>
+    </row>
+    <row r="123" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="75"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="87"/>
+      <c r="E123" s="88"/>
+    </row>
+    <row r="124" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="76"/>
+      <c r="B124" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="61"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="63"/>
+    </row>
+    <row r="126" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="B127" s="73"/>
+      <c r="C127" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="67"/>
+      <c r="E127" s="68"/>
+    </row>
+    <row r="128" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="B128" s="80"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="E128" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="70" t="s">
+      <c r="B129" s="80"/>
+      <c r="C129" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D129" s="62"/>
+      <c r="E129" s="65"/>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="18" t="s">
+      <c r="C130" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" s="70"/>
+      <c r="E130" s="71"/>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A131" s="75"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D131" s="59"/>
+      <c r="E131" s="60"/>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A132" s="75"/>
+      <c r="B132" s="78"/>
+      <c r="C132" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" s="59"/>
+      <c r="E132" s="60"/>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A133" s="75"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="93"/>
+      <c r="E133" s="94"/>
+    </row>
+    <row r="134" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="75"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="87"/>
+      <c r="E134" s="88"/>
+    </row>
+    <row r="135" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="76"/>
+      <c r="B135" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="86"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+      <c r="C135" s="61"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="63"/>
+    </row>
+    <row r="136" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+      <c r="B137" s="73"/>
+      <c r="C137" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D137" s="67"/>
+      <c r="E137" s="68"/>
+    </row>
+    <row r="138" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
+      <c r="B138" s="80"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="E138" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="67" t="s">
+      <c r="B139" s="80"/>
+      <c r="C139" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="96"/>
+      <c r="E139" s="96"/>
+    </row>
+    <row r="140" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B140" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="68"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="78"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="18" t="s">
+      <c r="C140" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" s="70"/>
+      <c r="E140" s="71"/>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A141" s="75"/>
+      <c r="B141" s="78"/>
+      <c r="C141" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" s="70"/>
+      <c r="E141" s="71"/>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A142" s="75"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D142" s="59"/>
+      <c r="E142" s="60"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A143" s="75"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D143" s="59"/>
+      <c r="E143" s="60"/>
+    </row>
+    <row r="144" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="75"/>
+      <c r="B144" s="78"/>
+      <c r="C144" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="D144" s="59"/>
+      <c r="E144" s="60"/>
+    </row>
+    <row r="145" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="76"/>
+      <c r="B145" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="86"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="C145" s="61"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="63"/>
+    </row>
+    <row r="146" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="B147" s="73"/>
+      <c r="C147" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147" s="67"/>
+      <c r="E147" s="68"/>
+    </row>
+    <row r="148" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15" t="s">
+      <c r="B148" s="80"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+      <c r="E148" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24" t="s">
+      <c r="B149" s="80"/>
+      <c r="C149" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" s="98"/>
+      <c r="E149" s="98"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A150" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B150" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="75"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="77"/>
-      <c r="E48" s="78"/>
-    </row>
-    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="18" t="s">
+      <c r="C150" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D150" s="70"/>
+      <c r="E150" s="71"/>
+    </row>
+    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A151" s="75"/>
+      <c r="B151" s="78"/>
+      <c r="C151" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" s="59"/>
+      <c r="E151" s="60"/>
+    </row>
+    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A152" s="75"/>
+      <c r="B152" s="78"/>
+      <c r="C152" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D152" s="59"/>
+      <c r="E152" s="60"/>
+    </row>
+    <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A153" s="75"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" s="59"/>
+      <c r="E153" s="60"/>
+    </row>
+    <row r="154" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="75"/>
+      <c r="B154" s="78"/>
+      <c r="C154" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D154" s="59"/>
+      <c r="E154" s="60"/>
+    </row>
+    <row r="155" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A155" s="75"/>
+      <c r="B155" s="78"/>
+      <c r="C155" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D155" s="59"/>
+      <c r="E155" s="60"/>
+    </row>
+    <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A156" s="75"/>
+      <c r="B156" s="78"/>
+      <c r="C156" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156" s="59"/>
+      <c r="E156" s="60"/>
+    </row>
+    <row r="157" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="75"/>
+      <c r="B157" s="78"/>
+      <c r="C157" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D157" s="59"/>
+      <c r="E157" s="60"/>
+    </row>
+    <row r="158" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="76"/>
+      <c r="B158" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="77"/>
-      <c r="E54" s="78"/>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="68"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-    </row>
-    <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="69"/>
-      <c r="B57" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="61"/>
-    </row>
-    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="68"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="77"/>
-      <c r="E64" s="78"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="78"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="69"/>
-      <c r="B66" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="60"/>
-      <c r="E68" s="61"/>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D71" s="74"/>
-      <c r="E71" s="75"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="77"/>
-      <c r="E72" s="78"/>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="68"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="77"/>
-      <c r="E73" s="78"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="78"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="69"/>
-      <c r="B75" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="86"/>
-    </row>
-    <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="61"/>
-    </row>
-    <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="74"/>
-      <c r="E80" s="75"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="78"/>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="78"/>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="78"/>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="69"/>
-      <c r="B84" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="85"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="86"/>
-    </row>
-    <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="61"/>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="66"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="94"/>
-      <c r="E89" s="95"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="91"/>
-      <c r="E90" s="92"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="D91" s="91"/>
-      <c r="E91" s="92"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="D92" s="91"/>
-      <c r="E92" s="92"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="81"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="D94" s="91"/>
-      <c r="E94" s="92"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="88"/>
-      <c r="E95" s="89"/>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="69"/>
-      <c r="B96" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="86"/>
-    </row>
-    <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="61"/>
-    </row>
-    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66"/>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C102" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="74"/>
-      <c r="E102" s="75"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="78"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" s="77"/>
-      <c r="E104" s="78"/>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="68"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="78"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D106" s="77"/>
-      <c r="E106" s="78"/>
-    </row>
-    <row r="107" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" s="77"/>
-      <c r="E107" s="78"/>
-    </row>
-    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="69"/>
-      <c r="B108" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="85"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="86"/>
-    </row>
-    <row r="109" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="60"/>
-      <c r="E110" s="61"/>
-    </row>
-    <row r="111" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" s="63"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" s="63"/>
-      <c r="C112" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B113" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" s="77"/>
-      <c r="E113" s="78"/>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="68"/>
-      <c r="B114" s="71"/>
-      <c r="C114" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" s="77"/>
-      <c r="E114" s="78"/>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="68"/>
-      <c r="B115" s="71"/>
-      <c r="C115" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="77"/>
-      <c r="E115" s="78"/>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="68"/>
-      <c r="B116" s="71"/>
-      <c r="C116" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="77"/>
-      <c r="E116" s="78"/>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="68"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="77"/>
-      <c r="E117" s="78"/>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="68"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D118" s="77"/>
-      <c r="E118" s="78"/>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="68"/>
-      <c r="B119" s="71"/>
-      <c r="C119" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D119" s="77"/>
-      <c r="E119" s="78"/>
-    </row>
-    <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120" s="83"/>
-      <c r="E120" s="84"/>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="69"/>
-      <c r="B121" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="85"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="86"/>
-    </row>
-    <row r="123" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="58"/>
-      <c r="C124" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="61"/>
-    </row>
-    <row r="125" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" s="63"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" s="63"/>
-      <c r="C126" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
-    </row>
-    <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="D127" s="74"/>
-      <c r="E127" s="75"/>
-    </row>
-    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="68"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="68"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="77"/>
-      <c r="E129" s="78"/>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="68"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="D130" s="80"/>
-      <c r="E130" s="81"/>
-    </row>
-    <row r="131" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="68"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D131" s="83"/>
-      <c r="E131" s="84"/>
-    </row>
-    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="69"/>
-      <c r="B132" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C132" s="85"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="86"/>
-    </row>
-    <row r="133" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B134" s="58"/>
-      <c r="C134" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D134" s="60"/>
-      <c r="E134" s="61"/>
-    </row>
-    <row r="135" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B135" s="63"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B136" s="63"/>
-      <c r="C136" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="D136" s="101"/>
-      <c r="E136" s="101"/>
-    </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A137" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="75"/>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="68"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D138" s="77"/>
-      <c r="E138" s="78"/>
-    </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="68"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D139" s="77"/>
-      <c r="E139" s="78"/>
-    </row>
-    <row r="140" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="68"/>
-      <c r="B140" s="71"/>
-      <c r="C140" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D140" s="77"/>
-      <c r="E140" s="78"/>
-    </row>
-    <row r="141" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="69"/>
-      <c r="B141" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C141" s="85"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="86"/>
-    </row>
-    <row r="142" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B143" s="58"/>
-      <c r="C143" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D143" s="60"/>
-      <c r="E143" s="61"/>
-    </row>
-    <row r="144" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B144" s="63"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B145" s="63"/>
-      <c r="C145" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="D145" s="103"/>
-      <c r="E145" s="103"/>
-    </row>
-    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="D146" s="74"/>
-      <c r="E146" s="75"/>
-    </row>
-    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="68"/>
-      <c r="B147" s="71"/>
-      <c r="C147" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="D147" s="77"/>
-      <c r="E147" s="78"/>
-    </row>
-    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="68"/>
-      <c r="B148" s="71"/>
-      <c r="C148" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="D148" s="77"/>
-      <c r="E148" s="78"/>
-    </row>
-    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A149" s="68"/>
-      <c r="B149" s="71"/>
-      <c r="C149" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="D149" s="77"/>
-      <c r="E149" s="78"/>
-    </row>
-    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A150" s="68"/>
-      <c r="B150" s="71"/>
-      <c r="C150" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="D150" s="77"/>
-      <c r="E150" s="78"/>
-    </row>
-    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A151" s="68"/>
-      <c r="B151" s="71"/>
-      <c r="C151" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="D151" s="77"/>
-      <c r="E151" s="78"/>
-    </row>
-    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A152" s="68"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="D152" s="77"/>
-      <c r="E152" s="78"/>
-    </row>
-    <row r="153" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="68"/>
-      <c r="B153" s="71"/>
-      <c r="C153" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="D153" s="77"/>
-      <c r="E153" s="78"/>
-    </row>
-    <row r="154" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="69"/>
-      <c r="B154" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C154" s="85"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="86"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="B150:B157"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A116:A124"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:A7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="A146:A154"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C149:E149"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5000,139 +5022,139 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>220</v>
+      <c r="B2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="41"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="41"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="41"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
